--- a/data/orientações_Egressos.xlsx
+++ b/data/orientações_Egressos.xlsx
@@ -970,7 +970,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1200,127 +1200,31 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
+          <t>Murillo Dias Winter</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ERICHSEN, Lucas. Egresso da UEPG une formação em História com o Instituto Nacional da Mata Atlântica. 2023.
-							(Programa de rádio ou TV/Entrevista).</t>
+          <t>Juliano da Costa Valcarengui.
+						Estados Unidos e Coreia do Sul em perspectiva: o Movimento de Gwangju e a busca por democracia em 1980.
+						2022.
+						Trabalho de Conclusão de Curso. (Graduação em História)  - Universidade Federal da Fronteira Sul. Orientador: Murillo Dias Winter.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
+          <t>Thiago Groh de Mello Cesar</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C15" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. Les pigeons de Copacabana. 2023.
-							(Programa de rádio ou TV/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. Dia do Historiador. 2023; Tema:
-						Dia do Historiador. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. Dia Nacional da Onça-Pintada!. 2023; Tema:
-						Dia Nacional da Onça-Pintada!. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. Dia Nacional da Abelha. 2023; Tema:
-						Dia Nacional da Abelha. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. Dia Nacional da Ciência e do Pesquisador. 2023; Tema:
-						Dia Nacional da Ciência e do Pesquisador. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Murillo Dias Winter</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Juliano da Costa Valcarengui.
-						Estados Unidos e Coreia do Sul em perspectiva: o Movimento de Gwangju e a busca por democracia em 1980.
-						2022.
-						Trabalho de Conclusão de Curso. (Graduação em História)  - Universidade Federal da Fronteira Sul. Orientador: Murillo Dias Winter.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C21" t="inlineStr">
         <is>
           <t>Maria Eduarda Araujo Lopes.
 						Festa do Divino: religiosidade e sociabilidade nos festejos do Divino Espirito Santo em Filadelfia-TO.
@@ -1329,16 +1233,16 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Thiago Groh de Mello Cesar</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>2024</v>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Eduardo Feitosa Brito.
 						A música como ferramenta para o Ensino de História.
@@ -1347,16 +1251,16 @@
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C23" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Thiago Groh de Mello Cesar</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>Kellen Kristina Rodrigues de Moraes.
 						A organização do poder e as dinâmicas do mundo colonial americano.
@@ -1365,16 +1269,16 @@
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C24" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Thiago Groh de Mello Cesar</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>Laryssa Borges Silva.
 						Trabalho Escravo Contemporâneo.
@@ -1383,16 +1287,16 @@
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C25" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Thiago Groh de Mello Cesar</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>Kemilly Silva Costa.
 						As vestimentas e indrumentárias de Maria Antonieta  na França do século XVIII: um olhar para a história da moda.
@@ -1401,6 +1305,114 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Thiago Groh de Mello Cesar</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Hayni Rosa Coelho.
+						A Guerra de Canudos: uma crise sertaneja na República.
+						2022.
+						Trabalho de Conclusão de Curso. (Graduação em História)  - Universidade Federal do Tocantins. Orientador: Thiago Groh de Mello Cesar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Thiago Groh de Mello Cesar</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Arleny da Silva Cavalcante.
+						A República Romana : início da República até as guerra Púnicas.
+						2022.
+						Trabalho de Conclusão de Curso. (Graduação em História)  - Universidade Federal do Tocantins. Orientador: Thiago Groh de Mello Cesar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Thiago Groh de Mello Cesar</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ana Caroline Souza Moraes.
+						Ana Mendieta: as interfases do feminismo na arte.
+						2022.
+						Trabalho de Conclusão de Curso. (Graduação em História)  - Universidade Federal do Tocantins. Orientador: Thiago Groh de Mello Cesar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Thiago Groh de Mello Cesar</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Maria Isabela Isaias da Rocha da Costa.
+						A hipersexualização da mulher negra no Brasil através das narrativas de mulheres negras de Araguaína-To.
+						2022.
+						Trabalho de Conclusão de Curso. (Graduação em História)  - Universidade Federal do Tocantins. Orientador: Thiago Groh de Mello Cesar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Thiago Groh de Mello Cesar</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Iarla Brito da Silva.
+						A representação do negro no livro didático de história: análise de imagens da coleção " Historia, Sociedade e Cidadania" 6° ano..
+						2022.
+						Trabalho de Conclusão de Curso. (Graduação em História)  - Universidade Federal do Tocantins. Orientador: Thiago Groh de Mello Cesar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Thiago Groh de Mello Cesar</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Amanda Silva Martins.
+						O Quilombo da Ilha de São Vicente, Araguatins-To: A construção da identidade e a resistência no processo de reconhecimento da comunidade (2010-2019).
+						2022.
+						Trabalho de Conclusão de Curso. (Graduação em História)  - Universidade Federal do Tocantins. Orientador: Thiago Groh de Mello Cesar.</t>
+        </is>
+      </c>
+    </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
@@ -1408,117 +1420,9 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C26" t="inlineStr">
-        <is>
-          <t>Hayni Rosa Coelho.
-						A Guerra de Canudos: uma crise sertaneja na República.
-						2022.
-						Trabalho de Conclusão de Curso. (Graduação em História)  - Universidade Federal do Tocantins. Orientador: Thiago Groh de Mello Cesar.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Arleny da Silva Cavalcante.
-						A República Romana : início da República até as guerra Púnicas.
-						2022.
-						Trabalho de Conclusão de Curso. (Graduação em História)  - Universidade Federal do Tocantins. Orientador: Thiago Groh de Mello Cesar.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Ana Caroline Souza Moraes.
-						Ana Mendieta: as interfases do feminismo na arte.
-						2022.
-						Trabalho de Conclusão de Curso. (Graduação em História)  - Universidade Federal do Tocantins. Orientador: Thiago Groh de Mello Cesar.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Maria Isabela Isaias da Rocha da Costa.
-						A hipersexualização da mulher negra no Brasil através das narrativas de mulheres negras de Araguaína-To.
-						2022.
-						Trabalho de Conclusão de Curso. (Graduação em História)  - Universidade Federal do Tocantins. Orientador: Thiago Groh de Mello Cesar.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Iarla Brito da Silva.
-						A representação do negro no livro didático de história: análise de imagens da coleção " Historia, Sociedade e Cidadania" 6° ano..
-						2022.
-						Trabalho de Conclusão de Curso. (Graduação em História)  - Universidade Federal do Tocantins. Orientador: Thiago Groh de Mello Cesar.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Amanda Silva Martins.
-						O Quilombo da Ilha de São Vicente, Araguatins-To: A construção da identidade e a resistência no processo de reconhecimento da comunidade (2010-2019).
-						2022.
-						Trabalho de Conclusão de Curso. (Graduação em História)  - Universidade Federal do Tocantins. Orientador: Thiago Groh de Mello Cesar.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C32" t="inlineStr">
         <is>
           <t>Jodiel Brito Dias.
 						Cristãos-novos no Brasil: intolerância religiosa e perseguição (século XVII).
@@ -1527,16 +1431,16 @@
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Thiago Groh de Mello Cesar</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
         <v>2021</v>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Samuel Rodrigues Martins.
 						Criação da Prelazia de Tocantinópolis: o Norte esquecido e a Bula Céu Pastor.
@@ -1545,16 +1449,16 @@
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Thiago Groh de Mello Cesar</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
         <v>2021</v>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Victória Maria Oliveira Vieira.
 						Professor e livro didático: implicações metodológicas na prática de Ensino de História nas séries iniciais.
@@ -1563,48 +1467,48 @@
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>Vicente Gil da Silva</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C35" t="inlineStr">
+      <c r="B29" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>Gustavo da Silva Pereira. A propaganda dos Estados Unidos durante a Segunda Guerra Mundial.
 					Início: 2023. Trabalho de Conclusão de Curso (Graduação em Defesa e Gestão Estratégica Internacional)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>Vicente Gil da Silva</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C36" t="inlineStr">
+      <c r="B30" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>André Veloso Simões Júnior. Análise da bibliografia sobre guerra híbrida no Brasil.
 					Início: 2023. Trabalho de Conclusão de Curso (Graduação em Defesa e Gestão Estratégica Internacional)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>Vicente Gil da Silva</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C37" t="inlineStr">
+      <c r="B31" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>Rebecca Corga de Paiva.
 						A propaganda política como instrumento de manipulação na campanha eleitoral de Donald Trump em 2016.
@@ -1613,16 +1517,16 @@
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>Vicente Gil da Silva</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C38" t="inlineStr">
+      <c r="B32" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>Pedro da Silva Albit de Penedo.
 						Estratégias, Interesses e Desgastes nas Relações Brasil-Estados Unidos (1945-1964). Fatores de política interna e externa que levaram os EUA a apoiarem o golpe civil-militar.
@@ -1631,16 +1535,16 @@
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>Vicente Gil da Silva</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C39" t="inlineStr">
+      <c r="B33" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>Allana Campbell Cunha Pires Silva.
 						Paz fragmentada: O Plano Colômbia e a legitimação da intervenção neoliberal estadunidense na virada do século XX.
@@ -2246,7 +2150,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2274,43 +2178,13 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Barbara Maria de Albuquerque Mitchell</t>
+          <t>Carolina Ferreira de Figueiredo</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C2" t="inlineStr">
-        <is>
-          <t>MITCHELL, Barbara M. de Albuquerque. Uma nova Guerra à Pobreza? Um paralelo entre os governos Biden e Johnson.. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Barbara Maria de Albuquerque Mitchell</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>MITCHELL, Barbara M. de Albuquerque. ?A GUERRA À POBREZA NOS ESTADOS UNIDOS: OS DEBATES E AS CONTRADIÇÕES NO DESAFIO DE  SOLUCIONAR  O  PROBLEMA  DA  POBREZA  (1964-  1968)?. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Carolina Ferreira de Figueiredo</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>Edvan Pereira Costa Rufino.
 						Cool Japan como modelo de História Pública.
@@ -2319,16 +2193,16 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Celia Daniele Moreira de Souza</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B3" t="n">
         <v>2024</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Ana Clara Pacheco.
 						ECOS FEMININOS EM O COLAR DA POMBA: A SEXUALIDADE DA MULHER ÁRABE EM AL-ANDALUS NO SÉCULO XI E A INFLUENCIA DA DOMINAÇÃO MASCULINA.
@@ -2337,16 +2211,16 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Gabriel Pereira de Oliveira</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B4" t="n">
         <v>2021</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Sebastião Ribeiro da Silva.
 						Elaboração e validação de cartilha educativa sobre ensino de Química no contexto de pandemia.
@@ -2355,16 +2229,16 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Geison Siqueira Tavares da Cruz</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>CINTIA SOUZA DE CARVALHO.
 						CT MATERIAIS DE CONSTRUÇÃO.
@@ -2373,16 +2247,16 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Geison Siqueira Tavares da Cruz</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B6" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>ISABELLA SEGATTO GRILO.
 						MAHALO GINKERIA.
@@ -2391,16 +2265,16 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Geison Siqueira Tavares da Cruz</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B7" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>LETÍCIA CRISTINA DE JESUS SANTOS.
 						ECO-AR.
@@ -2409,67 +2283,52 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>João Fernando Barreto de Brito</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Kaique Souza da Fonsêca.
+						Representações do amor LGBT+ em Linn da Quebrada e Liniker (2016-2022)..
+						2022.
+						Trabalho de Conclusão de Curso. (Graduação em História)  - Universidade do Estado do Rio Grande do Norte. Orientador: João Fernando Barreto de Brito.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>João Fernando Barreto de Brito</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Thaysi Heráklita Paulino Bessa de Paiva.
+						O movimento feminista: uma análise histórica do cenário brasileiro ao solo de Assú/RN..
+						2022.
+						Trabalho de Conclusão de Curso. (Graduação em História)  - Universidade do Estado do Rio Grande do Norte. Orientador: João Fernando Barreto de Brito.</t>
+        </is>
+      </c>
+    </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Geison Siqueira Tavares da Cruz</t>
+          <t>Lays Correa da Silva</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C10" t="inlineStr">
-        <is>
-          <t>SIQUEIRA, GEISON. Prática Extensionista. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>João Fernando Barreto de Brito</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Kaique Souza da Fonsêca.
-						Representações do amor LGBT+ em Linn da Quebrada e Liniker (2016-2022)..
-						2022.
-						Trabalho de Conclusão de Curso. (Graduação em História)  - Universidade do Estado do Rio Grande do Norte. Orientador: João Fernando Barreto de Brito.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>João Fernando Barreto de Brito</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Thaysi Heráklita Paulino Bessa de Paiva.
-						O movimento feminista: uma análise histórica do cenário brasileiro ao solo de Assú/RN..
-						2022.
-						Trabalho de Conclusão de Curso. (Graduação em História)  - Universidade do Estado do Rio Grande do Norte. Orientador: João Fernando Barreto de Brito.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Lays Correa da Silva</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C13" t="inlineStr">
         <is>
           <t>Laura Souza Faria.
 						Luto e Vidas Precárias na pandemia Covid-19.
@@ -2478,16 +2337,16 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Lays Correa da Silva</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="B11" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Tamiris Lacerda da Mota.
 						Irán 3037 (ex Venda Sexy): Gênero, memória e resistência das mulheres vítimas da violência política sexual durante a Ditadura Militar chilena (1973-1990).
@@ -2496,16 +2355,16 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Lays Correa da Silva</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="B12" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>Myllena Moura.
 						As arpilleras chilenas e as disputas de memória sobre a Ditadura Militar (1973-1990).
@@ -2514,16 +2373,16 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Lays Correa da Silva</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="B13" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>Victor dos Santos Silva.
 						A crítica nas canções de protesto de Chico Buarque durante a década de 1970.
@@ -2532,127 +2391,16 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Lays Correa da Silva</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>2021</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>CORREA, L.. Justiça de Transição e Comissões da Verdade na América do Sul,. 2021. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Lays Correa da Silva</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>CORREA, L.. O corpo interminável | Claudia Lage. 2021.
-							(Programa de rádio ou TV/Mesa redonda).</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Lays Correa da Silva</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>CORREA, L.. Política e militância LGBTQIA+ no Chile | Jaime Parada. 2021.
-							(Programa de rádio ou TV/Entrevista).</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Lays Correa da Silva</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>CORREA, L.. Ditaduras no Cone Sul da América Latina | Marina Franco e Hernán Ramírez. 2021.
-							(Programa de rádio ou TV/Mesa redonda).</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Lays Correa da Silva</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>CORREA, L.. Direita e repressão estatal no Chile | Debate. 2021.
-							(Programa de rádio ou TV/Entrevista).</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Lays Correa da Silva</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>CORREA, L.; ROSSI, J.P. . Lançamento História &amp; Luta de Classes 33 - América Latina Contemporânea: Lutas Sociais e Revoluções. 2022.
-							(Programa de rádio ou TV/Mesa redonda).</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Lays Correa da Silva</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>CORREA, L.. A ditadura militar brasileira e o golpe no Chile | Roberto Simon. 2021.
-							(Programa de rádio ou TV/Entrevista).</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C24" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Henrique Serra Marcondes.
 						As décadas de crise e o Grunge: Alice in Chains, Micro-história e práticas sociais.
@@ -2661,16 +2409,16 @@
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B15" t="n">
         <v>2021</v>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Cássia Gabriel de Oliveira.
 						?NÃO É SÓ PELOS 20 CENTAVOS?: a emergência das primeiras manifestações de junho de 2013 nos discursos do Jornal Folha de São Paulo. (6 de junho a 18 de junho de 2013)..
@@ -2679,16 +2427,16 @@
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B16" t="n">
         <v>2021</v>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Maikon James Scheres.
 						JEAN BAUDRILLARD: A HISTÓRIA COMO PAROXISMO (1981-2001).
@@ -2697,112 +2445,16 @@
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. Egresso da UEPG une formação em História com o Instituto Nacional da Mata Atlântica. 2023.
-							(Programa de rádio ou TV/Entrevista).</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. Les pigeons de Copacabana. 2023.
-							(Programa de rádio ou TV/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. Dia do Historiador. 2023; Tema:
-						Dia do Historiador. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. Dia Nacional da Onça-Pintada!. 2023; Tema:
-						Dia Nacional da Onça-Pintada!. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. Dia Nacional da Abelha. 2023; Tema:
-						Dia Nacional da Abelha. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. Dia Nacional da Ciência e do Pesquisador. 2023; Tema:
-						Dia Nacional da Ciência e do Pesquisador. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Maria Beatriz Gomes Bellens Porto</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B17" t="n">
         <v>2024</v>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Márcia Inês Vieira Lopes Inchausti.
 						DONA LEOPOLDINA: a imperatriz cientista.
@@ -2811,16 +2463,16 @@
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Maria Beatriz Gomes Bellens Porto</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C34" t="inlineStr">
+      <c r="B18" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>Ana Cristina Tomaz da Silva.
 						As representações das lutas das mulheres negras a partir das Ganhadeiras de Itapuã no carnaval vencedor do Viradouro 2020.
@@ -2829,16 +2481,16 @@
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Maria Beatriz Gomes Bellens Porto</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C35" t="inlineStr">
+      <c r="B19" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>Rita de Cássia de Almeida Silva.
 						A presença feminina nos livros didáticos: O caso da Imperatriz Leopoldina e Maria Quitéria e o processo de Independência do Brasil.
@@ -2847,16 +2499,16 @@
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Maria Beatriz Gomes Bellens Porto</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B20" t="n">
         <v>2021</v>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>José Carlos Lopes de Sá Junior.
 						A Presença Judaica Na Baixada Fluminense: Da Terra Prometida À Terra Da Promessa Nilópolis.
@@ -2865,16 +2517,16 @@
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Moisés Peixoto Soares</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B21" t="n">
         <v>2021</v>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Yasmin Christinni Ferreira Machado.
 						A MULHER NEGRA NO PÓS-ABOLIÇÃO:UM ESTUDO SOBRE MULHERES NEGRAS DE JACUTINGA, MESQUITA, RIODE JANEIRO.
@@ -2883,16 +2535,16 @@
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>Moisés Peixoto Soares</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B22" t="n">
         <v>2021</v>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Jonathan Teixeira da Silva.
 						A INFLUÊNCIA DA BANCADA EVANGÉLICA NA POLÍTICA BRASILEIRA.
@@ -2901,16 +2553,16 @@
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>Murillo Dias Winter</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C39" t="inlineStr">
+      <c r="B23" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>Juliano da Costa Valcarengui.
 						Estados Unidos e Coreia do Sul em perspectiva: o Movimento de Gwangju e a busca por democracia em 1980.
@@ -2919,16 +2571,16 @@
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Rodrigo Franco da Costa</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C40" t="inlineStr">
+      <c r="B24" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>Rebeka Bandeira Rodrigues.
 						?ENTRE VERSOS E ESPADAS: UMA ANÁLISE DA TIRANIA NO DISCURSO LITERÁRIO PORTUGUÊS (1618-1641)?.
@@ -2937,16 +2589,16 @@
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Thiago Groh de Mello Cesar</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
         <v>2024</v>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Maria Eduarda Araujo Lopes.
 						Festa do Divino: religiosidade e sociabilidade nos festejos do Divino Espirito Santo em Filadelfia-TO.
@@ -2955,16 +2607,16 @@
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Thiago Groh de Mello Cesar</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
         <v>2024</v>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Eduardo Feitosa Brito.
 						A música como ferramenta para o Ensino de História.
@@ -2973,16 +2625,16 @@
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C43" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Thiago Groh de Mello Cesar</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>Kellen Kristina Rodrigues de Moraes.
 						A organização do poder e as dinâmicas do mundo colonial americano.
@@ -2991,16 +2643,16 @@
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C44" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Thiago Groh de Mello Cesar</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>Laryssa Borges Silva.
 						Trabalho Escravo Contemporâneo.
@@ -3009,16 +2661,16 @@
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C45" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Thiago Groh de Mello Cesar</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>Kemilly Silva Costa.
 						As vestimentas e indrumentárias de Maria Antonieta  na França do século XVIII: um olhar para a história da moda.
@@ -3027,16 +2679,16 @@
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C46" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Thiago Groh de Mello Cesar</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>Hayni Rosa Coelho.
 						A Guerra de Canudos: uma crise sertaneja na República.
@@ -3045,16 +2697,16 @@
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C47" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Thiago Groh de Mello Cesar</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>Arleny da Silva Cavalcante.
 						A República Romana : início da República até as guerra Púnicas.
@@ -3063,16 +2715,16 @@
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C48" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Thiago Groh de Mello Cesar</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>Ana Caroline Souza Moraes.
 						Ana Mendieta: as interfases do feminismo na arte.
@@ -3081,16 +2733,16 @@
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C49" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Thiago Groh de Mello Cesar</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>Maria Isabela Isaias da Rocha da Costa.
 						A hipersexualização da mulher negra no Brasil através das narrativas de mulheres negras de Araguaína-To.
@@ -3099,16 +2751,16 @@
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C50" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Thiago Groh de Mello Cesar</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>Iarla Brito da Silva.
 						A representação do negro no livro didático de história: análise de imagens da coleção " Historia, Sociedade e Cidadania" 6° ano..
@@ -3117,16 +2769,16 @@
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C51" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Thiago Groh de Mello Cesar</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>Amanda Silva Martins.
 						O Quilombo da Ilha de São Vicente, Araguatins-To: A construção da identidade e a resistência no processo de reconhecimento da comunidade (2010-2019).
@@ -3135,16 +2787,16 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Thiago Groh de Mello Cesar</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
         <v>2021</v>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Jodiel Brito Dias.
 						Cristãos-novos no Brasil: intolerância religiosa e perseguição (século XVII).
@@ -3153,16 +2805,16 @@
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Thiago Groh de Mello Cesar</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
         <v>2021</v>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>Samuel Rodrigues Martins.
 						Criação da Prelazia de Tocantinópolis: o Norte esquecido e a Bula Céu Pastor.
@@ -3171,16 +2823,16 @@
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Thiago Groh de Mello Cesar</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
         <v>2021</v>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Victória Maria Oliveira Vieira.
 						Professor e livro didático: implicações metodológicas na prática de Ensino de História nas séries iniciais.
@@ -3189,31 +2841,16 @@
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Valéria Dorneles Fernandes</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>FERNANDES, VALÉRIA DORNELES. È preciso conhece-lo para melhor para melhor destrui-lo: nuvens de gafanhotos na América do Sul (1897-1952). 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>Vicente Gil da Silva</t>
         </is>
       </c>
-      <c r="B56" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C56" t="inlineStr">
+      <c r="B39" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>Rebecca Corga de Paiva.
 						A propaganda política como instrumento de manipulação na campanha eleitoral de Donald Trump em 2016.
@@ -3222,16 +2859,16 @@
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>Vicente Gil da Silva</t>
         </is>
       </c>
-      <c r="B57" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C57" t="inlineStr">
+      <c r="B40" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>Pedro da Silva Albit de Penedo.
 						Estratégias, Interesses e Desgastes nas Relações Brasil-Estados Unidos (1945-1964). Fatores de política interna e externa que levaram os EUA a apoiarem o golpe civil-militar.
@@ -3240,16 +2877,16 @@
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>Vicente Gil da Silva</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C58" t="inlineStr">
+      <c r="B41" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>Allana Campbell Cunha Pires Silva.
 						Paz fragmentada: O Plano Colômbia e a legitimação da intervenção neoliberal estadunidense na virada do século XX.
@@ -3258,16 +2895,16 @@
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>Victor Luiz Alvares Oliveira</t>
         </is>
       </c>
-      <c r="B59" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C59" t="inlineStr">
+      <c r="B42" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>Paulo de Morais Oliveira.
 						A SEGUNDA ESCRAVIDÃO NO BRASIL IMPERIAL: O CASO DO COMENDADOR JOAQUIM BREVES.
